--- a/output/fit_clients/fit_round_183.xlsx
+++ b/output/fit_clients/fit_round_183.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1705085035.780516</v>
+        <v>1673063430.395401</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07801931532486552</v>
+        <v>0.1062564324122282</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03426857860530797</v>
+        <v>0.02949844783811327</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>852542473.8886558</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2494587954.983784</v>
+        <v>2093351313.961244</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1547895747337844</v>
+        <v>0.1817481812706589</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03369176412741215</v>
+        <v>0.038376360166294</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1247294094.119964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3567357206.594164</v>
+        <v>3226546531.791254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1035966972724568</v>
+        <v>0.1216783712530365</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03301331147332022</v>
+        <v>0.03137507870988412</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1783678586.794026</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3999672549.861497</v>
+        <v>3039773851.367291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07724767036469993</v>
+        <v>0.09171360758801908</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04736844870137595</v>
+        <v>0.03281067637079225</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>71</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1999836278.656025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2444069027.667519</v>
+        <v>2434616492.080994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1344001400752182</v>
+        <v>0.1380576696746647</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04290024569820469</v>
+        <v>0.04162635821671649</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1222034495.346035</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2447012485.004703</v>
+        <v>3109972967.980604</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07800610042881503</v>
+        <v>0.06882302515502284</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03954482720753807</v>
+        <v>0.04087728615508855</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>57</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1223506260.610404</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3204800211.757904</v>
+        <v>3455658167.614696</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2200307890699098</v>
+        <v>0.1682911691603999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0315913794157689</v>
+        <v>0.03338667032990379</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>58</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1602400184.308026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2111578347.142874</v>
+        <v>2148525743.077002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1865548722370257</v>
+        <v>0.1866665528330809</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03170181181765085</v>
+        <v>0.02766832275024646</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1055789184.682471</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5453084604.687923</v>
+        <v>4063065017.007818</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2089016027713286</v>
+        <v>0.2035883419577945</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05116675464277735</v>
+        <v>0.0362199414258004</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>77</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2726542436.69975</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3157675073.781595</v>
+        <v>3606769481.217422</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1832131623385535</v>
+        <v>0.1684523906519498</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04234673648407657</v>
+        <v>0.03107161412534102</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1578837490.786889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2154447951.653626</v>
+        <v>2358698990.010896</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1651726996660613</v>
+        <v>0.1209849983440858</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05038953190548445</v>
+        <v>0.05260932079529856</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>65</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1077223916.398365</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5277037369.453811</v>
+        <v>3924687210.23324</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0799771328539005</v>
+        <v>0.08477559733055105</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02621961291803729</v>
+        <v>0.02136361184528678</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>61</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2638518674.767577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3687752214.337575</v>
+        <v>3353341721.207757</v>
       </c>
       <c r="F14" t="n">
-        <v>0.140793743923344</v>
+        <v>0.1619214330491331</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02749891396928566</v>
+        <v>0.0383470453915686</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>58</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1843876091.782243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1673363226.659117</v>
+        <v>1241738631.089421</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07333022778624468</v>
+        <v>0.07246040271577021</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03302945895094609</v>
+        <v>0.03590860461564654</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>836681738.114787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2372654557.694175</v>
+        <v>2252688879.73411</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1025316599467275</v>
+        <v>0.1154134164988348</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04506825714158425</v>
+        <v>0.04744882130037785</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1186327321.013677</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4431894520.63929</v>
+        <v>4547762000.113948</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1418122154582154</v>
+        <v>0.1658087082063983</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03558891373513417</v>
+        <v>0.03643696358561942</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>53</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2215947273.568178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3504405003.236044</v>
+        <v>2601529179.082989</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1688274694075358</v>
+        <v>0.1215322843703295</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02764056384450589</v>
+        <v>0.02943770474391014</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>60</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1752202495.296229</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1004481620.250719</v>
+        <v>1225117459.180791</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1539568666106362</v>
+        <v>0.1342067251192798</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01913972316648381</v>
+        <v>0.01987686478264562</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>502240840.4335591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1786853472.631467</v>
+        <v>1775353146.54946</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1329065803004836</v>
+        <v>0.1059211226147082</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0239253229846557</v>
+        <v>0.02571986075622133</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>30</v>
-      </c>
-      <c r="J20" t="n">
-        <v>893426785.3155986</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2547049611.444552</v>
+        <v>2603620626.950375</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07536029134667253</v>
+        <v>0.0937750928915016</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04296190380829119</v>
+        <v>0.04419449504946533</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1273524789.340221</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2672367456.998236</v>
+        <v>3818009753.85946</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1397000875395185</v>
+        <v>0.1025100223892729</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05040214280251356</v>
+        <v>0.05164094755559152</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1336183809.628246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1486724854.590554</v>
+        <v>1540929712.852419</v>
       </c>
       <c r="F23" t="n">
-        <v>0.154690914717475</v>
+        <v>0.1309271458330177</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05027148141849753</v>
+        <v>0.04643680586326247</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>743362415.4518114</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2558085472.157073</v>
+        <v>2533808730.49921</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1009269762635156</v>
+        <v>0.1218184120319126</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03632273859253356</v>
+        <v>0.03536407636741674</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>54</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1279042801.022144</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1361330112.012353</v>
+        <v>1370132524.013294</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08918648781084094</v>
+        <v>0.1083137129857702</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02647826538006339</v>
+        <v>0.02235526598323951</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>680665036.8310724</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1367170725.313567</v>
+        <v>1404269149.150261</v>
       </c>
       <c r="F26" t="n">
-        <v>0.119968839614585</v>
+        <v>0.08562312849128677</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0310745495259768</v>
+        <v>0.02843750539410928</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>683585424.5699942</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4367684361.402886</v>
+        <v>3839161319.319905</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1040537646938158</v>
+        <v>0.1293852068736408</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02050776580135372</v>
+        <v>0.02689414680317978</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2183842172.549518</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2589931141.983145</v>
+        <v>3131660535.401968</v>
       </c>
       <c r="F28" t="n">
-        <v>0.124352736629133</v>
+        <v>0.09449418219724363</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04610103290072082</v>
+        <v>0.03718974596445718</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>58</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1294965546.613312</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3754248053.047839</v>
+        <v>4074591747.948056</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1252558551224752</v>
+        <v>0.0968244137067182</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03301355184928775</v>
+        <v>0.03439240685070929</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>82</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1877124060.347262</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1687251270.641445</v>
+        <v>2181114100.832225</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09929727409766442</v>
+        <v>0.1225499610148552</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02964243113791026</v>
+        <v>0.03892285644240422</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>843625637.1662731</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1425348918.187711</v>
+        <v>1477591680.693538</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09890981255426197</v>
+        <v>0.08320091546451516</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04828531623501755</v>
+        <v>0.0473008864200451</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>712674357.4811921</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1538022204.111165</v>
+        <v>1595973591.270705</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1001283631731124</v>
+        <v>0.1041386158830834</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0343413162027487</v>
+        <v>0.03205275374269894</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>769011178.2534314</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2416032551.634594</v>
+        <v>2169349536.711942</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1422532458191027</v>
+        <v>0.1477296398136919</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05152709384514328</v>
+        <v>0.04744997553774347</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>56</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1208016321.168112</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1166694205.956475</v>
+        <v>1290137354.798414</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08379382312184445</v>
+        <v>0.1042572782239665</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01757930625655837</v>
+        <v>0.0231649168183145</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>583347113.442098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>969334702.0203198</v>
+        <v>887496495.7545874</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08585405513225336</v>
+        <v>0.1091124376720803</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03008209515050962</v>
+        <v>0.02864872472586783</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>484667376.2890609</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2712303191.755642</v>
+        <v>2812714970.413551</v>
       </c>
       <c r="F36" t="n">
-        <v>0.152191078242023</v>
+        <v>0.144481594191637</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01826430883827008</v>
+        <v>0.02239500349526331</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>45</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1356151600.819547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2030751633.997957</v>
+        <v>2131742788.971531</v>
       </c>
       <c r="F37" t="n">
-        <v>0.104768396913028</v>
+        <v>0.109383076780172</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03470850118193467</v>
+        <v>0.02837582383264273</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1015375848.516938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1773401304.006702</v>
+        <v>1728249807.991579</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08502326012422784</v>
+        <v>0.08451870329830929</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03676904514526206</v>
+        <v>0.02657808442703073</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>886700662.6143616</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1404178687.414187</v>
+        <v>1580698868.520831</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1403350719687043</v>
+        <v>0.1879763823699636</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02516922167994436</v>
+        <v>0.03219230480907252</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>702089428.6889259</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1690086049.793836</v>
+        <v>1674418135.007088</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1137564007804282</v>
+        <v>0.1220796298568204</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04800907358806619</v>
+        <v>0.04160195098047814</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>845042943.4963713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2927239421.756943</v>
+        <v>2457595674.174123</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1217350624622632</v>
+        <v>0.1318148812708722</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04106453302940503</v>
+        <v>0.0402394191340968</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1463619694.348369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3323374286.062702</v>
+        <v>2712980712.651975</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1125139403824923</v>
+        <v>0.1092112103066285</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04150824150675318</v>
+        <v>0.0412813298483287</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1661687125.698821</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1944467002.250533</v>
+        <v>1965136530.54136</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1291545225494914</v>
+        <v>0.1312419321077496</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0245718716561401</v>
+        <v>0.02123272918630335</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>63</v>
-      </c>
-      <c r="J43" t="n">
-        <v>972233605.6321515</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1735611408.324018</v>
+        <v>2282338769.777808</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09818383918791501</v>
+        <v>0.07242911497366648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0335636748605745</v>
+        <v>0.03109371658922078</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>867805757.7212002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1853154107.272071</v>
+        <v>1721978195.564787</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1935829738777733</v>
+        <v>0.1820127218067411</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03776206793249499</v>
+        <v>0.04648856741282777</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>926577029.6784611</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5072927158.617224</v>
+        <v>4305578085.057673</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1349913551798989</v>
+        <v>0.1582414457086415</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05232531255895115</v>
+        <v>0.03738270490514801</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>65</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2536463610.280026</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4578129257.105219</v>
+        <v>3930143401.851821</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2035589794650447</v>
+        <v>0.1808853059293826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04814540235698549</v>
+        <v>0.04837970836041234</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>49</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2289064660.415322</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3481626010.422511</v>
+        <v>3378583914.558375</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0671741227878016</v>
+        <v>0.09900483520366997</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03438340029600714</v>
+        <v>0.0353473116962323</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1740813069.663695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1261223906.644775</v>
+        <v>1662143292.124223</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1597610879077534</v>
+        <v>0.1746736568131584</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03451429573778821</v>
+        <v>0.03287011710220605</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>630612022.4583918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3928207820.135654</v>
+        <v>3685617031.811636</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1611588176228015</v>
+        <v>0.1495562242680987</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03566086659378878</v>
+        <v>0.04860669580119972</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>62</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1964103903.821947</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1290557370.165274</v>
+        <v>1522120131.295803</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1678026423902725</v>
+        <v>0.1240736651586859</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03363260406351843</v>
+        <v>0.04766170161618309</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>645278721.9324037</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3525657060.104692</v>
+        <v>4205977840.322706</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08568493314666749</v>
+        <v>0.1164759968691008</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03906981634246375</v>
+        <v>0.06113169397581211</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>75</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1762828614.426691</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2961534030.158431</v>
+        <v>2921642765.105447</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1978174212038401</v>
+        <v>0.1264811674122837</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02935617617385972</v>
+        <v>0.03416505330512874</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>52</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1480767050.174325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4899168791.132913</v>
+        <v>3767449135.339479</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1418429179421519</v>
+        <v>0.1171497325009961</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04521502489958585</v>
+        <v>0.05118127139172103</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2449584530.230543</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3225744773.412036</v>
+        <v>4658848706.193419</v>
       </c>
       <c r="F55" t="n">
-        <v>0.18902139541191</v>
+        <v>0.1681193259274417</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0321166760463514</v>
+        <v>0.02415135970947186</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1612872327.418711</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1693256256.893956</v>
+        <v>1705761647.336803</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1336609068164984</v>
+        <v>0.1032746890257293</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04230189982620573</v>
+        <v>0.05159305754440572</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>846628142.043944</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3394040383.488697</v>
+        <v>3731361638.765138</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1823832619541559</v>
+        <v>0.1228238156227859</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01977108514131783</v>
+        <v>0.02570476811105267</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>58</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1697020229.212625</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1668387711.233626</v>
+        <v>1467809159.475072</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1541530248993014</v>
+        <v>0.1696605808670448</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03394058195060926</v>
+        <v>0.02715727053531156</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>834193871.364004</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4288153660.936015</v>
+        <v>3635568270.496603</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1256746513295927</v>
+        <v>0.08039570591176001</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04014304394360654</v>
+        <v>0.04547165417627001</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2144076792.487641</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3012818180.052425</v>
+        <v>3561286287.699129</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1912783005658953</v>
+        <v>0.1408646443867273</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03290308270459116</v>
+        <v>0.03232155450621239</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1506409161.697921</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3285224290.54983</v>
+        <v>3282120354.659405</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1491230695399449</v>
+        <v>0.1523637970706166</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02073357877772525</v>
+        <v>0.0280643754233976</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1642612098.824262</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1550631069.998229</v>
+        <v>1659639037.851949</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1420123895642051</v>
+        <v>0.1903751845726447</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03611704842460555</v>
+        <v>0.03250700473851666</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>775315525.591875</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5012910959.843212</v>
+        <v>4804011244.621965</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06778881631246748</v>
+        <v>0.0876550078605504</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04428314714875803</v>
+        <v>0.03645896313753395</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>52</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2506455497.074152</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5003084848.148808</v>
+        <v>4919324420.657045</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1479177231733583</v>
+        <v>0.1752202219913575</v>
       </c>
       <c r="G64" t="n">
-        <v>0.021465193792002</v>
+        <v>0.02512126999670745</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>57</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2501542530.453354</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3666452596.136778</v>
+        <v>6013587724.179886</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1139828695120217</v>
+        <v>0.1551937946319591</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02914906591906867</v>
+        <v>0.03050617205285293</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>66</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1833226336.517286</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5061423419.594374</v>
+        <v>5312337202.845776</v>
       </c>
       <c r="F66" t="n">
-        <v>0.128340778155121</v>
+        <v>0.1372567798100799</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04143190389355852</v>
+        <v>0.03711235120689928</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>53</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2530711740.225543</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3175091892.434956</v>
+        <v>3131445115.507898</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08160475939637193</v>
+        <v>0.09725257349462019</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04879512994898175</v>
+        <v>0.04971012336152007</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>59</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1587545949.599921</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3950806804.507335</v>
+        <v>4717760222.179536</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1177830172774347</v>
+        <v>0.1472425518123372</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04305767869097637</v>
+        <v>0.04458250047338376</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>58</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1975403395.031498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1643324174.683021</v>
+        <v>1765089519.526092</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1145629429514708</v>
+        <v>0.154171927536394</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03999006150568502</v>
+        <v>0.05206828117454287</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>821662046.1577168</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3416045056.745756</v>
+        <v>3554687110.163159</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07737378214963293</v>
+        <v>0.08270481641294096</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03373525153697562</v>
+        <v>0.03188410170797208</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>52</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1708022532.421344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5023630277.917866</v>
+        <v>4724335033.171619</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1299156508488178</v>
+        <v>0.1429534342224294</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02312126386150294</v>
+        <v>0.0280605647173994</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>67</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2511815246.431741</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2208201050.201789</v>
+        <v>2179477396.131048</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1030916516655735</v>
+        <v>0.1069466145653144</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04706927761944683</v>
+        <v>0.03785389041944191</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1104100437.837683</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2406134532.173457</v>
+        <v>3133313952.885661</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06916140142513053</v>
+        <v>0.1077215133850296</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04723743758190346</v>
+        <v>0.04804836158574514</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>70</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1203067316.408634</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3582973552.137212</v>
+        <v>4028291836.412156</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1394708322760022</v>
+        <v>0.1382669960540971</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02502640840328182</v>
+        <v>0.02970490192631465</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>62</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1791486791.054839</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1712458799.963475</v>
+        <v>1731153060.619387</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1082159168155439</v>
+        <v>0.1331176845507815</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02586434168706504</v>
+        <v>0.03024215662591196</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>856229391.1554589</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3237656937.179336</v>
+        <v>4824689013.776019</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09985745265194557</v>
+        <v>0.1051249935908921</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03016491022467235</v>
+        <v>0.02834621733555897</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1618828421.315669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1888693284.3454</v>
+        <v>2010650007.807749</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1827813718590988</v>
+        <v>0.1291928518069613</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02162890979749543</v>
+        <v>0.02348536294548322</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>944346687.2263662</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3191687620.980324</v>
+        <v>3620694437.095599</v>
       </c>
       <c r="F78" t="n">
-        <v>0.098501463230798</v>
+        <v>0.1003741793001785</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0549157075101336</v>
+        <v>0.04482302903994467</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>64</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1595843834.011563</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1870473509.621594</v>
+        <v>1779963380.241705</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1712555257102436</v>
+        <v>0.1419144614281027</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03704775798131912</v>
+        <v>0.0281078137795058</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>935236853.7570834</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4786951819.246502</v>
+        <v>4439375269.960097</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1110995435224384</v>
+        <v>0.09140686889875539</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03518165142968038</v>
+        <v>0.02912153868633044</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>38</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2393475948.20192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3692375864.035191</v>
+        <v>3284425902.261911</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1119202037388383</v>
+        <v>0.1103042317702815</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02036287709230901</v>
+        <v>0.03095537806926637</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1846187883.791524</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4935045483.078531</v>
+        <v>5549594474.191986</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1981568376177433</v>
+        <v>0.1377924649462251</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02268250570911223</v>
+        <v>0.02585283746227382</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>64</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2467522729.105412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1699474039.59528</v>
+        <v>1878805438.263359</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1022898477799199</v>
+        <v>0.1574970961922316</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03621685807138229</v>
+        <v>0.04452071283776982</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>849736967.7111764</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2219250168.936277</v>
+        <v>2531037303.859519</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09477646205548586</v>
+        <v>0.08668536118504001</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04127301764409799</v>
+        <v>0.05161018974574545</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1109625057.345452</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3032110822.752441</v>
+        <v>3130752192.783056</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1489035642903969</v>
+        <v>0.1391779253341967</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05595987504818901</v>
+        <v>0.03701466563547021</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>69</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1516055475.04001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1896327112.286187</v>
+        <v>2265254121.447525</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1362965084235775</v>
+        <v>0.1537677155642574</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02000412515865617</v>
+        <v>0.02607689054675322</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>948163569.2999254</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>953261872.2847985</v>
+        <v>929454176.2549036</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1359317997148626</v>
+        <v>0.1300776103409391</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03126207263493997</v>
+        <v>0.03368455788236972</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>476630928.4587314</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2972898938.681235</v>
+        <v>3733764590.635959</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1430952175333819</v>
+        <v>0.1656172473503348</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03943445508520862</v>
+        <v>0.03677591530941627</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>72</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1486449497.080446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2774778988.412704</v>
+        <v>2557249579.211832</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1387501546937054</v>
+        <v>0.1336247686542287</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03885579096224288</v>
+        <v>0.03045621247354467</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>62</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1387389548.800674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1794191469.573478</v>
+        <v>1607542937.119888</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09325046447447419</v>
+        <v>0.1307249967211768</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03518191830599456</v>
+        <v>0.05579986068401697</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>897095767.3119637</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1318156680.61836</v>
+        <v>1873707061.883495</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1436437422314248</v>
+        <v>0.1379395276055583</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05735793980276037</v>
+        <v>0.05533294725783686</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>659078403.4478755</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2451591644.609086</v>
+        <v>2204349736.034355</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09333466397618223</v>
+        <v>0.09159944766661564</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03744696798074912</v>
+        <v>0.03442684840246731</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>46</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1225795802.557541</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3057112201.558457</v>
+        <v>3110797086.914848</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08560286058548887</v>
+        <v>0.09297324145552899</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03949182786418124</v>
+        <v>0.05390943969215218</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1528556162.336297</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1519029625.31143</v>
+        <v>2204967950.848056</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1477333167259743</v>
+        <v>0.1652560018478024</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04219382509796216</v>
+        <v>0.0346137426520461</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>759514748.4256908</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2282409674.801443</v>
+        <v>3224945725.961979</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1020428870966836</v>
+        <v>0.1158780630854877</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03970763822442028</v>
+        <v>0.04324989425894294</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>43</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1141204889.288353</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1831760601.99555</v>
+        <v>2225428910.480068</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09205723670421295</v>
+        <v>0.136015735096602</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03704970855199346</v>
+        <v>0.04583029266485884</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>915880305.9217715</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4567736261.874568</v>
+        <v>3322507562.73308</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1400271947279739</v>
+        <v>0.1065020207306167</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02374528841240874</v>
+        <v>0.02154194791580948</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2283868232.945587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3368852317.548771</v>
+        <v>2722767375.999276</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09309913075862977</v>
+        <v>0.09546641054005797</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02020065164588846</v>
+        <v>0.02636665705514404</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>48</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1684426168.450806</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3244126000.181767</v>
+        <v>2357284194.356354</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1056580954278989</v>
+        <v>0.1117366855251907</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02915994507081429</v>
+        <v>0.03017871164872487</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>56</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1622063003.684457</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4602979218.674299</v>
+        <v>4111350654.114851</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1487179326151734</v>
+        <v>0.1674912851761172</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01720242789425885</v>
+        <v>0.02316838984026883</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>56</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2301489728.121013</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2715119902.193081</v>
+        <v>2707331519.113893</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1690285819492384</v>
+        <v>0.2092097250602006</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05118800446659296</v>
+        <v>0.05859705126738768</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>75</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1357560002.484671</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_183.xlsx
+++ b/output/fit_clients/fit_round_183.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1673063430.395401</v>
+        <v>2203057319.528798</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1062564324122282</v>
+        <v>0.09293080602508406</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02949844783811327</v>
+        <v>0.03163074651722592</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2093351313.961244</v>
+        <v>2377838869.440627</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1817481812706589</v>
+        <v>0.1565503017420878</v>
       </c>
       <c r="G3" t="n">
-        <v>0.038376360166294</v>
+        <v>0.04526989143388674</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3226546531.791254</v>
+        <v>3236243217.920053</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1216783712530365</v>
+        <v>0.1336351621157469</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03137507870988412</v>
+        <v>0.03767425261617206</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3039773851.367291</v>
+        <v>3805729478.535406</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09171360758801908</v>
+        <v>0.1096931070364791</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03281067637079225</v>
+        <v>0.04139412689452469</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2434616492.080994</v>
+        <v>1784413604.460726</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1380576696746647</v>
+        <v>0.0912528314606439</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04162635821671649</v>
+        <v>0.03495477936620096</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3109972967.980604</v>
+        <v>2973914897.60807</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06882302515502284</v>
+        <v>0.08691221552246139</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04087728615508855</v>
+        <v>0.03682362609077506</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3455658167.614696</v>
+        <v>2443911134.008744</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1682911691603999</v>
+        <v>0.2116332981306223</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03338667032990379</v>
+        <v>0.02075088918348242</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2148525743.077002</v>
+        <v>2054229590.5329</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1866665528330809</v>
+        <v>0.1756619207947168</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02766832275024646</v>
+        <v>0.02883543082537983</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4063065017.007818</v>
+        <v>4913753972.499516</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2035883419577945</v>
+        <v>0.1673308373766082</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0362199414258004</v>
+        <v>0.03587185256815765</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3606769481.217422</v>
+        <v>3245492326.232733</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1684523906519498</v>
+        <v>0.1189750478683265</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03107161412534102</v>
+        <v>0.0301497705976679</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2358698990.010896</v>
+        <v>2091087438.814892</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1209849983440858</v>
+        <v>0.1528061538874694</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05260932079529856</v>
+        <v>0.04185854117584387</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3924687210.23324</v>
+        <v>4764686183.929061</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08477559733055105</v>
+        <v>0.09780454685125523</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02136361184528678</v>
+        <v>0.01961179249973891</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3353341721.207757</v>
+        <v>3496367285.259217</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1619214330491331</v>
+        <v>0.1549409214764835</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0383470453915686</v>
+        <v>0.03566542512746243</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1241738631.089421</v>
+        <v>1410465133.026853</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07246040271577021</v>
+        <v>0.08816947327614827</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03590860461564654</v>
+        <v>0.04832385372285194</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2252688879.73411</v>
+        <v>2691256438.183628</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1154134164988348</v>
+        <v>0.1030109056666887</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04744882130037785</v>
+        <v>0.047372670745738</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4547762000.113948</v>
+        <v>5290921110.377604</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1658087082063983</v>
+        <v>0.1572165111591752</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03643696358561942</v>
+        <v>0.04397896800918288</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2601529179.082989</v>
+        <v>3018642824.962496</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1215322843703295</v>
+        <v>0.1449653460414076</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02943770474391014</v>
+        <v>0.03090994948801856</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1225117459.180791</v>
+        <v>868639389.5025715</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1342067251192798</v>
+        <v>0.1588535932707091</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01987686478264562</v>
+        <v>0.02618872002320967</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1775353146.54946</v>
+        <v>2530808669.62503</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1059211226147082</v>
+        <v>0.1510332475852086</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02571986075622133</v>
+        <v>0.02182876809996276</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2603620626.950375</v>
+        <v>1888080069.66281</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0937750928915016</v>
+        <v>0.07590459394903429</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04419449504946533</v>
+        <v>0.0341323508528602</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3818009753.85946</v>
+        <v>3762697987.875965</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1025100223892729</v>
+        <v>0.1039867348600585</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05164094755559152</v>
+        <v>0.05109701806755373</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1540929712.852419</v>
+        <v>1392016992.572282</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1309271458330177</v>
+        <v>0.1445342343478302</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04643680586326247</v>
+        <v>0.03717748829225757</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2533808730.49921</v>
+        <v>3130179974.682943</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1218184120319126</v>
+        <v>0.1144163499361068</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03536407636741674</v>
+        <v>0.03758419318941541</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1370132524.013294</v>
+        <v>1028339810.114297</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1083137129857702</v>
+        <v>0.08241668368951921</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02235526598323951</v>
+        <v>0.02739987841791593</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1404269149.150261</v>
+        <v>1401350496.721735</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08562312849128677</v>
+        <v>0.1116343109702492</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02843750539410928</v>
+        <v>0.02399407577250069</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3839161319.319905</v>
+        <v>3451616967.88732</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1293852068736408</v>
+        <v>0.1439653089906882</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02689414680317978</v>
+        <v>0.01941384823308994</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3131660535.401968</v>
+        <v>3643394018.119199</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09449418219724363</v>
+        <v>0.0948577854804513</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03718974596445718</v>
+        <v>0.0360320274731327</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4074591747.948056</v>
+        <v>4278938916.082149</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0968244137067182</v>
+        <v>0.1093054937880725</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03439240685070929</v>
+        <v>0.03191003412151313</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2181114100.832225</v>
+        <v>2048373808.15235</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1225499610148552</v>
+        <v>0.1195783121986612</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03892285644240422</v>
+        <v>0.03299472315647291</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1477591680.693538</v>
+        <v>1114975247.894738</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08320091546451516</v>
+        <v>0.09701201305550076</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0473008864200451</v>
+        <v>0.05113497267656043</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1595973591.270705</v>
+        <v>1336805948.9433</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1041386158830834</v>
+        <v>0.08830322213380241</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03205275374269894</v>
+        <v>0.02573077477732115</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2169349536.711942</v>
+        <v>2662628062.950773</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1477296398136919</v>
+        <v>0.134632358157556</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04744997553774347</v>
+        <v>0.04775381871531757</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1290137354.798414</v>
+        <v>1547078878.128501</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1042572782239665</v>
+        <v>0.1115365097311557</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0231649168183145</v>
+        <v>0.02418545568416609</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>887496495.7545874</v>
+        <v>1213921530.660375</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1091124376720803</v>
+        <v>0.0821902617453443</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02864872472586783</v>
+        <v>0.04246208282478267</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2812714970.413551</v>
+        <v>3153446707.509218</v>
       </c>
       <c r="F36" t="n">
-        <v>0.144481594191637</v>
+        <v>0.1654003399066473</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02239500349526331</v>
+        <v>0.0283084896951634</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2131742788.971531</v>
+        <v>2849509904.217189</v>
       </c>
       <c r="F37" t="n">
-        <v>0.109383076780172</v>
+        <v>0.1043350781311926</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02837582383264273</v>
+        <v>0.03563511050055479</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1728249807.991579</v>
+        <v>1455206606.041091</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08451870329830929</v>
+        <v>0.07771469556439335</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02657808442703073</v>
+        <v>0.03883690983584367</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1580698868.520831</v>
+        <v>1353512831.494804</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1879763823699636</v>
+        <v>0.1810156152229374</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03219230480907252</v>
+        <v>0.03139567746482272</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1674418135.007088</v>
+        <v>1428228603.682104</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1220796298568204</v>
+        <v>0.150494981533627</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04160195098047814</v>
+        <v>0.04726910065022578</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2457595674.174123</v>
+        <v>2790980468.787365</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1318148812708722</v>
+        <v>0.1466460489946574</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0402394191340968</v>
+        <v>0.0347526285698008</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2712980712.651975</v>
+        <v>3118623448.961439</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1092112103066285</v>
+        <v>0.1269187833887278</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0412813298483287</v>
+        <v>0.0343254366982827</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1965136530.54136</v>
+        <v>2122637635.890368</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1312419321077496</v>
+        <v>0.1837839140489751</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02123272918630335</v>
+        <v>0.01600351023056302</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2282338769.777808</v>
+        <v>1732661304.463836</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07242911497366648</v>
+        <v>0.07336529376809871</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03109371658922078</v>
+        <v>0.02297162301306778</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1721978195.564787</v>
+        <v>2396032045.600771</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1820127218067411</v>
+        <v>0.1923031559281352</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04648856741282777</v>
+        <v>0.03806924258790652</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4305578085.057673</v>
+        <v>4618989774.777248</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1582414457086415</v>
+        <v>0.1308282670209573</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03738270490514801</v>
+        <v>0.05317485408444678</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3930143401.851821</v>
+        <v>3671557621.99616</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1808853059293826</v>
+        <v>0.1945241817743778</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04837970836041234</v>
+        <v>0.05609633864714784</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3378583914.558375</v>
+        <v>4201345006.615443</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09900483520366997</v>
+        <v>0.08405409054941701</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0353473116962323</v>
+        <v>0.03161964825833259</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1662143292.124223</v>
+        <v>1545183093.61484</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1746736568131584</v>
+        <v>0.1415740093924336</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03287011710220605</v>
+        <v>0.03673447084590867</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3685617031.811636</v>
+        <v>3698411755.265388</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1495562242680987</v>
+        <v>0.1775777515532314</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04860669580119972</v>
+        <v>0.05138598515139773</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1522120131.295803</v>
+        <v>1063040214.905387</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1240736651586859</v>
+        <v>0.1933903837741462</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04766170161618309</v>
+        <v>0.04490256199348294</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4205977840.322706</v>
+        <v>4218233342.869843</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1164759968691008</v>
+        <v>0.1066457586877791</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06113169397581211</v>
+        <v>0.06059070734060835</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2921642765.105447</v>
+        <v>3237481149.453487</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1264811674122837</v>
+        <v>0.1659410484394171</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03416505330512874</v>
+        <v>0.02742495696560726</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3767449135.339479</v>
+        <v>4258038497.787952</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1171497325009961</v>
+        <v>0.1628006891679582</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05118127139172103</v>
+        <v>0.05255375621064854</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4658848706.193419</v>
+        <v>4437329527.110649</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1681193259274417</v>
+        <v>0.1958400599093354</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02415135970947186</v>
+        <v>0.02450356008813708</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1705761647.336803</v>
+        <v>1560432457.487975</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1032746890257293</v>
+        <v>0.1648987130975017</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05159305754440572</v>
+        <v>0.04343627334432987</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3731361638.765138</v>
+        <v>2935996402.990622</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1228238156227859</v>
+        <v>0.1403017099907507</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02570476811105267</v>
+        <v>0.0256655416214523</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1467809159.475072</v>
+        <v>1884928579.963266</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1696605808670448</v>
+        <v>0.1311643272515119</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02715727053531156</v>
+        <v>0.02811372388156472</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3635568270.496603</v>
+        <v>4714648629.969154</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08039570591176001</v>
+        <v>0.09936413471858678</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04547165417627001</v>
+        <v>0.04730195470159598</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3561286287.699129</v>
+        <v>2729856284.180969</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1408646443867273</v>
+        <v>0.1255377168398998</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03232155450621239</v>
+        <v>0.0321286656734748</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3282120354.659405</v>
+        <v>2919235913.017489</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1523637970706166</v>
+        <v>0.1105322837159712</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0280643754233976</v>
+        <v>0.02899471536203343</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1659639037.851949</v>
+        <v>1962323006.53751</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1903751845726447</v>
+        <v>0.153554010896981</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03250700473851666</v>
+        <v>0.04130063626084216</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4804011244.621965</v>
+        <v>4857189525.160132</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0876550078605504</v>
+        <v>0.07668573722728764</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03645896313753395</v>
+        <v>0.04522079571894937</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4919324420.657045</v>
+        <v>5401231890.452734</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1752202219913575</v>
+        <v>0.1624618058821633</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02512126999670745</v>
+        <v>0.02805972321234703</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6013587724.179886</v>
+        <v>5149565603.709254</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1551937946319591</v>
+        <v>0.1517744053011227</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03050617205285293</v>
+        <v>0.02180975767023866</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5312337202.845776</v>
+        <v>4811376585.639671</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1372567798100799</v>
+        <v>0.1337001880827076</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03711235120689928</v>
+        <v>0.04968771231880856</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3131445115.507898</v>
+        <v>3084089516.701126</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09725257349462019</v>
+        <v>0.0830258806084426</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04971012336152007</v>
+        <v>0.04464163333451243</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4717760222.179536</v>
+        <v>4011852979.951344</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1472425518123372</v>
+        <v>0.1575662232465982</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04458250047338376</v>
+        <v>0.04829325215190131</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1765089519.526092</v>
+        <v>2110653719.482256</v>
       </c>
       <c r="F69" t="n">
-        <v>0.154171927536394</v>
+        <v>0.1132000271077283</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05206828117454287</v>
+        <v>0.0518086178409411</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3554687110.163159</v>
+        <v>2681412782.736507</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08270481641294096</v>
+        <v>0.06939944093588034</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03188410170797208</v>
+        <v>0.04635283129732451</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4724335033.171619</v>
+        <v>5280691977.858015</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1429534342224294</v>
+        <v>0.1764076710108724</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0280605647173994</v>
+        <v>0.02795851062330942</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2179477396.131048</v>
+        <v>1843427386.677373</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1069466145653144</v>
+        <v>0.09899646823034695</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03785389041944191</v>
+        <v>0.04040526029168864</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3133313952.885661</v>
+        <v>2381150340.152902</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1077215133850296</v>
+        <v>0.08330319039930854</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04804836158574514</v>
+        <v>0.03849758940864974</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4028291836.412156</v>
+        <v>3474141023.75579</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1382669960540971</v>
+        <v>0.1647186717205192</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02970490192631465</v>
+        <v>0.03054530076443458</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1731153060.619387</v>
+        <v>1796825952.92546</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1331176845507815</v>
+        <v>0.146313708716116</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03024215662591196</v>
+        <v>0.02707811354861117</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4824689013.776019</v>
+        <v>4385467859.953246</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1051249935908921</v>
+        <v>0.1201682721962554</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02834621733555897</v>
+        <v>0.03288220166785743</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2010650007.807749</v>
+        <v>1490046263.942218</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1291928518069613</v>
+        <v>0.1296864783529218</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02348536294548322</v>
+        <v>0.02883359561292214</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3620694437.095599</v>
+        <v>3392665682.045556</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1003741793001785</v>
+        <v>0.09653104902157086</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04482302903994467</v>
+        <v>0.05457827877283306</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1779963380.241705</v>
+        <v>1300799049.441679</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1419144614281027</v>
+        <v>0.1323892070241597</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0281078137795058</v>
+        <v>0.02635892578597301</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4439375269.960097</v>
+        <v>4868111936.308958</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09140686889875539</v>
+        <v>0.07756873945337198</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02912153868633044</v>
+        <v>0.03171168936254476</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3284425902.261911</v>
+        <v>3372073246.97247</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1103042317702815</v>
+        <v>0.09193791619047983</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03095537806926637</v>
+        <v>0.02019393460916023</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5549594474.191986</v>
+        <v>5007833673.592384</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1377924649462251</v>
+        <v>0.1964852245584233</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02585283746227382</v>
+        <v>0.0180018405878282</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1878805438.263359</v>
+        <v>2164128021.543221</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1574970961922316</v>
+        <v>0.1196814018836583</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04452071283776982</v>
+        <v>0.04317092871673305</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2531037303.859519</v>
+        <v>1910826448.798039</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08668536118504001</v>
+        <v>0.1049264161386271</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05161018974574545</v>
+        <v>0.05246961648336855</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3130752192.783056</v>
+        <v>2824230573.655375</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1391779253341967</v>
+        <v>0.162003236923295</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03701466563547021</v>
+        <v>0.03550082397472989</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2265254121.447525</v>
+        <v>1746576211.016431</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1537677155642574</v>
+        <v>0.1060929843576314</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02607689054675322</v>
+        <v>0.0206127361535177</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>929454176.2549036</v>
+        <v>1353278730.39852</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1300776103409391</v>
+        <v>0.1563997928704829</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03368455788236972</v>
+        <v>0.03144565646410025</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3733764590.635959</v>
+        <v>2642286425.845967</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1656172473503348</v>
+        <v>0.1352854222747315</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03677591530941627</v>
+        <v>0.02825841133839096</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2557249579.211832</v>
+        <v>3290281321.556691</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1336247686542287</v>
+        <v>0.1270922745858113</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03045621247354467</v>
+        <v>0.0379751855045413</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1607542937.119888</v>
+        <v>1692286723.864223</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1307249967211768</v>
+        <v>0.08436500563951146</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05579986068401697</v>
+        <v>0.04267966757958374</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1873707061.883495</v>
+        <v>1812076920.375084</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1379395276055583</v>
+        <v>0.1261406261442666</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05533294725783686</v>
+        <v>0.04609098842668635</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2204349736.034355</v>
+        <v>1998843294.661013</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09159944766661564</v>
+        <v>0.07558264854091983</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03442684840246731</v>
+        <v>0.03277932097487097</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3110797086.914848</v>
+        <v>4390666469.003176</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09297324145552899</v>
+        <v>0.09933094837782477</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05390943969215218</v>
+        <v>0.04737957702668535</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2204967950.848056</v>
+        <v>1810793687.752489</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1652560018478024</v>
+        <v>0.1533604523723618</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0346137426520461</v>
+        <v>0.03796996679420921</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3224945725.961979</v>
+        <v>3025249601.770647</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1158780630854877</v>
+        <v>0.08829485440237371</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04324989425894294</v>
+        <v>0.04109372937191814</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2225428910.480068</v>
+        <v>1774635289.945731</v>
       </c>
       <c r="F96" t="n">
-        <v>0.136015735096602</v>
+        <v>0.1292869906653364</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04583029266485884</v>
+        <v>0.03935520252338857</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3322507562.73308</v>
+        <v>4220249120.835004</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1065020207306167</v>
+        <v>0.1728978717538898</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02154194791580948</v>
+        <v>0.02471042983836089</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2722767375.999276</v>
+        <v>3032037961.566876</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09546641054005797</v>
+        <v>0.1089759198491014</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02636665705514404</v>
+        <v>0.0319260921164187</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2357284194.356354</v>
+        <v>3293186000.338988</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1117366855251907</v>
+        <v>0.09150055197691805</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03017871164872487</v>
+        <v>0.02424519639428848</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4111350654.114851</v>
+        <v>4003881526.374872</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1674912851761172</v>
+        <v>0.1222548245710331</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02316838984026883</v>
+        <v>0.02256458569536371</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2707331519.113893</v>
+        <v>3132421858.43344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2092097250602006</v>
+        <v>0.1681797869058758</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05859705126738768</v>
+        <v>0.04934849190754563</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_183.xlsx
+++ b/output/fit_clients/fit_round_183.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2203057319.528798</v>
+        <v>2113254818.04871</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09293080602508406</v>
+        <v>0.1077202016115448</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03163074651722592</v>
+        <v>0.04423032000286178</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2377838869.440627</v>
+        <v>2292166703.164393</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1565503017420878</v>
+        <v>0.1374895954763481</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04526989143388674</v>
+        <v>0.04315675698267412</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3236243217.920053</v>
+        <v>4014801406.825771</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1336351621157469</v>
+        <v>0.1222146917924918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03767425261617206</v>
+        <v>0.0323082668105085</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>101</v>
+      </c>
+      <c r="J4" t="n">
+        <v>182</v>
+      </c>
+      <c r="K4" t="n">
+        <v>114.4353121903965</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3805729478.535406</v>
+        <v>4095576200.074496</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1096931070364791</v>
+        <v>0.0814009973000981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04139412689452469</v>
+        <v>0.04496182539638571</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>183</v>
+      </c>
+      <c r="K5" t="n">
+        <v>139.3561362008361</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1784413604.460726</v>
+        <v>2816470298.422489</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0912528314606439</v>
+        <v>0.1391122009768983</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03495477936620096</v>
+        <v>0.04966038466050288</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2973914897.60807</v>
+        <v>2749045705.774311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08691221552246139</v>
+        <v>0.09344514004632236</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03682362609077506</v>
+        <v>0.04959917485488036</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2443911134.008744</v>
+        <v>3764024695.005054</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2116332981306223</v>
+        <v>0.17095911710528</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02075088918348242</v>
+        <v>0.03080156437785505</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>51</v>
+      </c>
+      <c r="J8" t="n">
+        <v>183</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2054229590.5329</v>
+        <v>1858089318.153308</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1756619207947168</v>
+        <v>0.1308825542733157</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02883543082537983</v>
+        <v>0.02419063713367932</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4913753972.499516</v>
+        <v>3990208222.483098</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1673308373766082</v>
+        <v>0.2135756677553211</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03587185256815765</v>
+        <v>0.04315261192613367</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>168</v>
+      </c>
+      <c r="J10" t="n">
+        <v>182</v>
+      </c>
+      <c r="K10" t="n">
+        <v>125.4818425732653</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3245492326.232733</v>
+        <v>2672648823.870912</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1189750478683265</v>
+        <v>0.1540637999024573</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0301497705976679</v>
+        <v>0.04433912737572054</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>182</v>
+      </c>
+      <c r="K11" t="n">
+        <v>55.69004612053875</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2091087438.814892</v>
+        <v>2283005877.71226</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1528061538874694</v>
+        <v>0.1240005223910146</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04185854117584387</v>
+        <v>0.05030936507901408</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +894,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4764686183.929061</v>
+        <v>3582986244.305935</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09780454685125523</v>
+        <v>0.09599513251455666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01961179249973891</v>
+        <v>0.02387528382856842</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>91</v>
+      </c>
+      <c r="J13" t="n">
+        <v>182</v>
+      </c>
+      <c r="K13" t="n">
+        <v>92.30895754544321</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3496367285.259217</v>
+        <v>3483192268.653095</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1549409214764835</v>
+        <v>0.1386549320854209</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03566542512746243</v>
+        <v>0.03645276086103856</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>180</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1410465133.026853</v>
+        <v>1301358772.041076</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08816947327614827</v>
+        <v>0.08216035018125184</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04832385372285194</v>
+        <v>0.04716706927576058</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2691256438.183628</v>
+        <v>2190485955.259194</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1030109056666887</v>
+        <v>0.0941916294723122</v>
       </c>
       <c r="G16" t="n">
-        <v>0.047372670745738</v>
+        <v>0.04186226988613388</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5290921110.377604</v>
+        <v>5234424890.222194</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1572165111591752</v>
+        <v>0.1698894293235886</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04397896800918288</v>
+        <v>0.05208765403789057</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>182</v>
+      </c>
+      <c r="K17" t="n">
+        <v>115.2745853787242</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1067,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3018642824.962496</v>
+        <v>3836368074.192924</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1449653460414076</v>
+        <v>0.1706317416836039</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03090994948801856</v>
+        <v>0.02539109151792614</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>46</v>
+      </c>
+      <c r="J18" t="n">
+        <v>182</v>
+      </c>
+      <c r="K18" t="n">
+        <v>104.9005639636629</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1104,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>868639389.5025715</v>
+        <v>1030979085.430784</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1588535932707091</v>
+        <v>0.1544454984352121</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02618872002320967</v>
+        <v>0.02103067567597517</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1145,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2530808669.62503</v>
+        <v>1985743305.344824</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1510332475852086</v>
+        <v>0.1427112266993405</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02182876809996276</v>
+        <v>0.0209824320793836</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1174,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1888080069.66281</v>
+        <v>2286741984.575528</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07590459394903429</v>
+        <v>0.06681078931682925</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0341323508528602</v>
+        <v>0.03951838535705409</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1215,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3762697987.875965</v>
+        <v>3317883286.665622</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1039867348600585</v>
+        <v>0.1446316966033422</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05109701806755373</v>
+        <v>0.03636832549605667</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>47</v>
+      </c>
+      <c r="J22" t="n">
+        <v>181</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1392016992.572282</v>
+        <v>1203222993.76194</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1445342343478302</v>
+        <v>0.1504751035553043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03717748829225757</v>
+        <v>0.04552986391772813</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3130179974.682943</v>
+        <v>3702444415.807561</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1144163499361068</v>
+        <v>0.1005471659008578</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03758419318941541</v>
+        <v>0.03663002818383863</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>56</v>
+      </c>
+      <c r="J24" t="n">
+        <v>183</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1028339810.114297</v>
+        <v>1374707407.33069</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08241668368951921</v>
+        <v>0.09728851392752384</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02739987841791593</v>
+        <v>0.02232976427720004</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1355,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1401350496.721735</v>
+        <v>1010170888.958688</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1116343109702492</v>
+        <v>0.1075246520181378</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02399407577250069</v>
+        <v>0.0336427749042343</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3451616967.88732</v>
+        <v>4264340481.926493</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1439653089906882</v>
+        <v>0.1130731801213241</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01941384823308994</v>
+        <v>0.02144915899649897</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>72</v>
+      </c>
+      <c r="J27" t="n">
+        <v>183</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3643394018.119199</v>
+        <v>3810407004.653472</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0948577854804513</v>
+        <v>0.09587029389213035</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0360320274731327</v>
+        <v>0.03453496421276205</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>36</v>
+      </c>
+      <c r="J28" t="n">
+        <v>183</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4278938916.082149</v>
+        <v>4704673163.465621</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1093054937880725</v>
+        <v>0.1417159012794334</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03191003412151313</v>
+        <v>0.03985834703681008</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>172</v>
+      </c>
+      <c r="J29" t="n">
+        <v>183</v>
+      </c>
+      <c r="K29" t="n">
+        <v>144.5894844383567</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2048373808.15235</v>
+        <v>1809395993.041811</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1195783121986612</v>
+        <v>0.1070672590946673</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03299472315647291</v>
+        <v>0.02426122807317872</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1114975247.894738</v>
+        <v>1178385601.224762</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09701201305550076</v>
+        <v>0.07281488279421007</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05113497267656043</v>
+        <v>0.04781948207356058</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1336805948.9433</v>
+        <v>1879068014.413</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08830322213380241</v>
+        <v>0.09738268985470154</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02573077477732115</v>
+        <v>0.03222436195382634</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2662628062.950773</v>
+        <v>2898865580.490933</v>
       </c>
       <c r="F33" t="n">
-        <v>0.134632358157556</v>
+        <v>0.2045530198720068</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04775381871531757</v>
+        <v>0.04724397930182484</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1547078878.128501</v>
+        <v>1120508452.803951</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1115365097311557</v>
+        <v>0.1117526954458077</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02418545568416609</v>
+        <v>0.02419445573450457</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1213921530.660375</v>
+        <v>1162988654.875039</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0821902617453443</v>
+        <v>0.1067690457225661</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04246208282478267</v>
+        <v>0.04503738372259226</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3153446707.509218</v>
+        <v>3149737109.653487</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1654003399066473</v>
+        <v>0.1485446730220132</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0283084896951634</v>
+        <v>0.02433688458220809</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2849509904.217189</v>
+        <v>2149707312.006825</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1043350781311926</v>
+        <v>0.1104948285245335</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03563511050055479</v>
+        <v>0.02607411044756444</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1455206606.041091</v>
+        <v>1808887736.693382</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07771469556439335</v>
+        <v>0.09004167940302477</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03883690983584367</v>
+        <v>0.03142739368325611</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1353512831.494804</v>
+        <v>1626570551.356567</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1810156152229374</v>
+        <v>0.1197254689778425</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03139567746482272</v>
+        <v>0.02594735391098534</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1428228603.682104</v>
+        <v>1597520769.436597</v>
       </c>
       <c r="F40" t="n">
-        <v>0.150494981533627</v>
+        <v>0.1504869164488717</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04726910065022578</v>
+        <v>0.05197802603973654</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2790980468.787365</v>
+        <v>1767342541.964235</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1466460489946574</v>
+        <v>0.1622182693337457</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0347526285698008</v>
+        <v>0.03363903812280081</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3118623448.961439</v>
+        <v>3147815542.769968</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1269187833887278</v>
+        <v>0.07751478360156161</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0343254366982827</v>
+        <v>0.04567587968453075</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>70</v>
+      </c>
+      <c r="J42" t="n">
+        <v>180</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2122637635.890368</v>
+        <v>2394030668.13371</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1837839140489751</v>
+        <v>0.2027302498499141</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01600351023056302</v>
+        <v>0.02254171159691056</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1732661304.463836</v>
+        <v>1787774622.71468</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07336529376809871</v>
+        <v>0.08055937996829457</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02297162301306778</v>
+        <v>0.03487056004658175</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2396032045.600771</v>
+        <v>1816002851.502413</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1923031559281352</v>
+        <v>0.1372247341485741</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03806924258790652</v>
+        <v>0.03825441041323217</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4618989774.777248</v>
+        <v>4388123230.699597</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1308282670209573</v>
+        <v>0.1211589799130473</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05317485408444678</v>
+        <v>0.05885860498431662</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>103</v>
+      </c>
+      <c r="J46" t="n">
+        <v>183</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3671557621.99616</v>
+        <v>5103081122.752455</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1945241817743778</v>
+        <v>0.1440771659860055</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05609633864714784</v>
+        <v>0.04035282261218535</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>81</v>
+      </c>
+      <c r="J47" t="n">
+        <v>182</v>
+      </c>
+      <c r="K47" t="n">
+        <v>103.0074208968548</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4201345006.615443</v>
+        <v>3890281542.931461</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08405409054941701</v>
+        <v>0.09818500863111458</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03161964825833259</v>
+        <v>0.02666076361790743</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>85</v>
+      </c>
+      <c r="J48" t="n">
+        <v>182</v>
+      </c>
+      <c r="K48" t="n">
+        <v>112.7020043326308</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1545183093.61484</v>
+        <v>1535536222.738611</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1415740093924336</v>
+        <v>0.1510133410471219</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03673447084590867</v>
+        <v>0.0329385182441657</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3698411755.265388</v>
+        <v>3357156519.080951</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1775777515532314</v>
+        <v>0.1216398996041925</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05138598515139773</v>
+        <v>0.04141310547486016</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>58</v>
+      </c>
+      <c r="J50" t="n">
+        <v>182</v>
+      </c>
+      <c r="K50" t="n">
+        <v>82.53329547699821</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1063040214.905387</v>
+        <v>961238975.2422453</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1933903837741462</v>
+        <v>0.1446712958491734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04490256199348294</v>
+        <v>0.03969594161269259</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4218233342.869843</v>
+        <v>4174073569.820604</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1066457586877791</v>
+        <v>0.1079108021954945</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06059070734060835</v>
+        <v>0.05930147926160213</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>129</v>
+      </c>
+      <c r="J52" t="n">
+        <v>183</v>
+      </c>
+      <c r="K52" t="n">
+        <v>126.3272629692137</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3237481149.453487</v>
+        <v>3604669301.005687</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1659410484394171</v>
+        <v>0.1547640873953508</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02742495696560726</v>
+        <v>0.02782963072733522</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>183</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2339,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4258038497.787952</v>
+        <v>3199046513.262547</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1628006891679582</v>
+        <v>0.1279660907843772</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05255375621064854</v>
+        <v>0.04912903221499718</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>93</v>
+      </c>
+      <c r="J54" t="n">
+        <v>181</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4437329527.110649</v>
+        <v>4497724357.55582</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1958400599093354</v>
+        <v>0.1867987855808065</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02450356008813708</v>
+        <v>0.02757919404314672</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>83</v>
+      </c>
+      <c r="J55" t="n">
+        <v>182</v>
+      </c>
+      <c r="K55" t="n">
+        <v>122.0740490493008</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1560432457.487975</v>
+        <v>1511423805.115651</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1648987130975017</v>
+        <v>0.123709461322221</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04343627334432987</v>
+        <v>0.05588970057349412</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2935996402.990622</v>
+        <v>2810579973.22802</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1403017099907507</v>
+        <v>0.1760007359304745</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0256655416214523</v>
+        <v>0.01894816184605179</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>74</v>
+      </c>
+      <c r="J57" t="n">
+        <v>181</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1884928579.963266</v>
+        <v>1879004075.058347</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1311643272515119</v>
+        <v>0.1531653553695266</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02811372388156472</v>
+        <v>0.03367155028698997</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2516,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4714648629.969154</v>
+        <v>3684995540.094322</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09936413471858678</v>
+        <v>0.08359380831906514</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04730195470159598</v>
+        <v>0.03427287786894964</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>88</v>
+      </c>
+      <c r="J59" t="n">
+        <v>182</v>
+      </c>
+      <c r="K59" t="n">
+        <v>91.24663825492635</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2559,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2729856284.180969</v>
+        <v>2506504170.575078</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1255377168398998</v>
+        <v>0.1707725286680138</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0321286656734748</v>
+        <v>0.02802435920703562</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2919235913.017489</v>
+        <v>3360938407.483889</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1105322837159712</v>
+        <v>0.1255422150502838</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02899471536203343</v>
+        <v>0.02310391537370298</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1962323006.53751</v>
+        <v>1780700385.451134</v>
       </c>
       <c r="F62" t="n">
-        <v>0.153554010896981</v>
+        <v>0.1882016965697658</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04130063626084216</v>
+        <v>0.03062901659630506</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2664,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4857189525.160132</v>
+        <v>4724469183.687519</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07668573722728764</v>
+        <v>0.06703675453706821</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04522079571894937</v>
+        <v>0.03592706323830304</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>90</v>
+      </c>
+      <c r="J63" t="n">
+        <v>182</v>
+      </c>
+      <c r="K63" t="n">
+        <v>116.6372738622573</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2695,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5401231890.452734</v>
+        <v>5234793307.434466</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1624618058821633</v>
+        <v>0.1377488435457326</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02805972321234703</v>
+        <v>0.02948543598879258</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>90</v>
+      </c>
+      <c r="J64" t="n">
+        <v>182</v>
+      </c>
+      <c r="K64" t="n">
+        <v>120.7196196894509</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2732,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5149565603.709254</v>
+        <v>5991581769.883602</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1517744053011227</v>
+        <v>0.1059549015335104</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02180975767023866</v>
+        <v>0.02986607782061703</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>148</v>
+      </c>
+      <c r="J65" t="n">
+        <v>183</v>
+      </c>
+      <c r="K65" t="n">
+        <v>128.3229596470924</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2769,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4811376585.639671</v>
+        <v>5731491533.007781</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1337001880827076</v>
+        <v>0.09805012943782175</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04968771231880856</v>
+        <v>0.0485068991269991</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>90</v>
+      </c>
+      <c r="J66" t="n">
+        <v>182</v>
+      </c>
+      <c r="K66" t="n">
+        <v>115.3543360913376</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2806,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3084089516.701126</v>
+        <v>2545386297.936582</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0830258806084426</v>
+        <v>0.07223454004922358</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04464163333451243</v>
+        <v>0.0474108798571957</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2847,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4011852979.951344</v>
+        <v>5461898450.196673</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1575662232465982</v>
+        <v>0.112217765891652</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04829325215190131</v>
+        <v>0.0437491035000243</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>92</v>
+      </c>
+      <c r="J68" t="n">
+        <v>182</v>
+      </c>
+      <c r="K68" t="n">
+        <v>121.1269774303519</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2878,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2110653719.482256</v>
+        <v>1554364540.872232</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1132000271077283</v>
+        <v>0.1323307213817558</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0518086178409411</v>
+        <v>0.04542808362455148</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2913,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2681412782.736507</v>
+        <v>3472735458.03299</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06939944093588034</v>
+        <v>0.09096932752753424</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04635283129732451</v>
+        <v>0.04668994697476678</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2954,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5280691977.858015</v>
+        <v>5227897754.459993</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1764076710108724</v>
+        <v>0.1250781721931271</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02795851062330942</v>
+        <v>0.0323003104416719</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>142</v>
+      </c>
+      <c r="J71" t="n">
+        <v>183</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2983,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1843427386.677373</v>
+        <v>1682512633.721513</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09899646823034695</v>
+        <v>0.08955907383037542</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04040526029168864</v>
+        <v>0.04294133361688685</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3018,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2381150340.152902</v>
+        <v>3488189123.216177</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08330319039930854</v>
+        <v>0.09558323107338082</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03849758940864974</v>
+        <v>0.04069224335047252</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3059,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3474141023.75579</v>
+        <v>3604118129.577114</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1647186717205192</v>
+        <v>0.1567577507097608</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03054530076443458</v>
+        <v>0.0257576743719665</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>53</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3088,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1796825952.92546</v>
+        <v>2292681135.006098</v>
       </c>
       <c r="F75" t="n">
-        <v>0.146313708716116</v>
+        <v>0.1568232559298458</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02707811354861117</v>
+        <v>0.02742662799435892</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3123,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4385467859.953246</v>
+        <v>3809391308.369411</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1201682721962554</v>
+        <v>0.07588781160268444</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03288220166785743</v>
+        <v>0.03398533263713653</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>83</v>
+      </c>
+      <c r="J76" t="n">
+        <v>183</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3158,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1490046263.942218</v>
+        <v>1393939198.801586</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1296864783529218</v>
+        <v>0.1666657589424881</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02883359561292214</v>
+        <v>0.03139071051449518</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3193,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3392665682.045556</v>
+        <v>4505148259.341318</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09653104902157086</v>
+        <v>0.1315315317999066</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05457827877283306</v>
+        <v>0.04616114133997073</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>93</v>
+      </c>
+      <c r="J78" t="n">
+        <v>183</v>
+      </c>
+      <c r="K78" t="n">
+        <v>130.1110711240383</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3230,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1300799049.441679</v>
+        <v>1637993321.591778</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1323892070241597</v>
+        <v>0.156768084842323</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02635892578597301</v>
+        <v>0.03133772427434276</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3265,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4868111936.308958</v>
+        <v>5048427042.738918</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07756873945337198</v>
+        <v>0.07851788884421676</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03171168936254476</v>
+        <v>0.03600260595931064</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>89</v>
+      </c>
+      <c r="J80" t="n">
+        <v>183</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3300,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3372073246.97247</v>
+        <v>3740327958.597801</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09193791619047983</v>
+        <v>0.1056369059629488</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02019393460916023</v>
+        <v>0.02744122547693178</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>84</v>
+      </c>
+      <c r="J81" t="n">
+        <v>183</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3341,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5007833673.592384</v>
+        <v>4195031690.156872</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1964852245584233</v>
+        <v>0.1682744437941124</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0180018405878282</v>
+        <v>0.02295992199438925</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>135</v>
+      </c>
+      <c r="J82" t="n">
+        <v>183</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2164128021.543221</v>
+        <v>1809948986.103339</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1196814018836583</v>
+        <v>0.1074358824284438</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04317092871673305</v>
+        <v>0.04551023230930519</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1910826448.798039</v>
+        <v>2416463277.222217</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1049264161386271</v>
+        <v>0.09043024342536751</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05246961648336855</v>
+        <v>0.04643241301782776</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2824230573.655375</v>
+        <v>2690740890.154065</v>
       </c>
       <c r="F85" t="n">
-        <v>0.162003236923295</v>
+        <v>0.1517580587081918</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03550082397472989</v>
+        <v>0.04029183545742832</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1746576211.016431</v>
+        <v>2292508315.235636</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1060929843576314</v>
+        <v>0.1257953065671217</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0206127361535177</v>
+        <v>0.02042769109122836</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3516,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1353278730.39852</v>
+        <v>1370888761.222131</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1563997928704829</v>
+        <v>0.14088717193573</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03144565646410025</v>
+        <v>0.02974835046936243</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2642286425.845967</v>
+        <v>2917185860.085533</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1352854222747315</v>
+        <v>0.1580940835891347</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02825841133839096</v>
+        <v>0.03405056089148752</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>26</v>
+      </c>
+      <c r="J88" t="n">
+        <v>181</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3290281321.556691</v>
+        <v>2697308070.141138</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1270922745858113</v>
+        <v>0.1106351137488048</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0379751855045413</v>
+        <v>0.04105064941581587</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1692286723.864223</v>
+        <v>1461398357.302404</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08436500563951146</v>
+        <v>0.1177407531376786</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04267966757958374</v>
+        <v>0.0538353201541439</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1812076920.375084</v>
+        <v>1623669223.587009</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1261406261442666</v>
+        <v>0.1749456295527662</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04609098842668635</v>
+        <v>0.05688336228150172</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1998843294.661013</v>
+        <v>2700178675.295474</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07558264854091983</v>
+        <v>0.1021350663358774</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03277932097487097</v>
+        <v>0.04432116441644732</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3726,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4390666469.003176</v>
+        <v>4956668388.559787</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09933094837782477</v>
+        <v>0.1369630254584893</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04737957702668535</v>
+        <v>0.03471031378771785</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>82</v>
+      </c>
+      <c r="J93" t="n">
+        <v>183</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1810793687.752489</v>
+        <v>2374930156.135574</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1533604523723618</v>
+        <v>0.1366472027692351</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03796996679420921</v>
+        <v>0.02621764128622693</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3025249601.770647</v>
+        <v>2374832494.806923</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08829485440237371</v>
+        <v>0.1309349786977388</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04109372937191814</v>
+        <v>0.04802563057287534</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1774635289.945731</v>
+        <v>2334602507.948385</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1292869906653364</v>
+        <v>0.1291406369650428</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03935520252338857</v>
+        <v>0.03564968234083855</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4220249120.835004</v>
+        <v>4487015700.650775</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1728978717538898</v>
+        <v>0.1481225643600063</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02471042983836089</v>
+        <v>0.02650529754754422</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>88</v>
+      </c>
+      <c r="J97" t="n">
+        <v>183</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3032037961.566876</v>
+        <v>3923096727.6195</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1089759198491014</v>
+        <v>0.1224416439346974</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0319260921164187</v>
+        <v>0.02778080742486069</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>44</v>
+      </c>
+      <c r="J98" t="n">
+        <v>183</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3293186000.338988</v>
+        <v>2798998537.7214</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09150055197691805</v>
+        <v>0.09512155807141746</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02424519639428848</v>
+        <v>0.0246205282032004</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4003881526.374872</v>
+        <v>4548132677.193671</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1222548245710331</v>
+        <v>0.112037977354253</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02256458569536371</v>
+        <v>0.02296824831205996</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>76</v>
+      </c>
+      <c r="J100" t="n">
+        <v>183</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3132421858.43344</v>
+        <v>2561025649.501983</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1681797869058758</v>
+        <v>0.193405794592641</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04934849190754563</v>
+        <v>0.03935681155718915</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
